--- a/REyeker-DataAnalyses-Python/data/code_flow/BI_ReverseString.xlsx
+++ b/REyeker-DataAnalyses-Python/data/code_flow/BI_ReverseString.xlsx
@@ -8,22 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
-    <sheet name="values" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>start</t>
   </si>
   <si>
     <t>stop</t>
-  </si>
-  <si>
-    <t>code flow</t>
   </si>
 </sst>
 </file>
@@ -381,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,381 +396,175 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B6">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="B7">
-        <v>141</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B8">
-        <v>169</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="B9">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="B10">
-        <v>225</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="B11">
-        <v>253</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="B12">
-        <v>281</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="B13">
-        <v>309</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="B14">
-        <v>337</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="B15">
-        <v>365</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="B16">
-        <v>393</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="B17">
-        <v>421</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="B18">
-        <v>449</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="B19">
-        <v>477</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="B20">
-        <v>505</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="B21">
-        <v>533</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="B22">
-        <v>561</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="B23">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>590</v>
-      </c>
-      <c r="B24">
         <v>591</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
